--- a/data/trans_orig/P16B99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E96BD60-59A0-491F-8EDF-158CDD48FF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DB756C-1EC3-4FD1-B946-629BF65116D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{005EA923-5ADD-48D6-90F1-F4208077F721}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42F61CE5-B4DE-47C0-A75E-EBCC729D8924}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F98DF-129A-4E23-BD35-637B11F61580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F035DE0-45B3-42CE-9FA9-401E69D2BB9D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E78078-9FAA-4B2D-8481-273A2627E140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A874CE0-3982-4FD7-9572-9E5F6EEA9D0D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB2FA2B-BE35-4105-8BED-4F3EEA914217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A96870-8B94-48E1-81EC-5084E2CB234C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B99-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B99-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DB756C-1EC3-4FD1-B946-629BF65116D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C74FA3A-9556-40F8-AF91-13D70A9F02A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42F61CE5-B4DE-47C0-A75E-EBCC729D8924}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE7B20D9-02BD-4D3C-9C47-C36D01E5799F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,7 +118,7 @@
     <t>55,59%</t>
   </si>
   <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F035DE0-45B3-42CE-9FA9-401E69D2BB9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73823D9E-02FC-43A5-9739-09428555E11A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1510,7 +1510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A874CE0-3982-4FD7-9572-9E5F6EEA9D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC9C2C2-AE68-4A7A-A84C-359A793DEEF1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2510,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A96870-8B94-48E1-81EC-5084E2CB234C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E7E307-CF29-4014-BCC4-FED2890E4157}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
